--- a/reports/resnet18_23_no_MMTM/prediction/8/probability_val_8.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/8/probability_val_8.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8194467425346375</v>
+        <v>0.6374562382698059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1805532723665237</v>
+        <v>0.3625437617301941</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2161042094230652</v>
+        <v>0.2318122386932373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7838957905769348</v>
+        <v>0.7681877613067627</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9038097262382507</v>
+        <v>0.8790397644042969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09619025886058807</v>
+        <v>0.1209602728486061</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.690912127494812</v>
+        <v>0.7216520309448242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309087872505188</v>
+        <v>0.2783480286598206</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9536278247833252</v>
+        <v>0.9794118404388428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.046372190117836</v>
+        <v>0.02058815024793148</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2071717083454132</v>
+        <v>0.2756955027580261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7928283214569092</v>
+        <v>0.7243045568466187</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.451372504234314</v>
+        <v>0.5642210841178894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.548627495765686</v>
+        <v>0.4357789158821106</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3292608857154846</v>
+        <v>0.09851548820734024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6707390546798706</v>
+        <v>0.901484489440918</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1742394268512726</v>
+        <v>0.1651669889688492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825760543346405</v>
+        <v>0.834833025932312</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09531402587890625</v>
+        <v>0.09108695387840271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9046859741210938</v>
+        <v>0.9089131355285645</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6103159189224243</v>
+        <v>0.7329051494598389</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3896840810775757</v>
+        <v>0.2670948207378387</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07037168741226196</v>
+        <v>0.06640481948852539</v>
       </c>
       <c r="C13" t="n">
-        <v>0.929628312587738</v>
+        <v>0.9335951805114746</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1719916760921478</v>
+        <v>0.08224079012870789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8280083537101746</v>
+        <v>0.9177592992782593</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1329736411571503</v>
+        <v>0.1146348193287849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8670263886451721</v>
+        <v>0.8853651285171509</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1354699581861496</v>
+        <v>0.06137177348136902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8645300269126892</v>
+        <v>0.9386281967163086</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1349760144948959</v>
+        <v>0.06629103422164917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8650239706039429</v>
+        <v>0.9337089657783508</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1887983977794647</v>
+        <v>0.2071014195680618</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8112015724182129</v>
+        <v>0.7928985953330994</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06649363785982132</v>
+        <v>0.06887459754943848</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9335063695907593</v>
+        <v>0.9311254024505615</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1040589883923531</v>
+        <v>0.1280500739812851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8959410190582275</v>
+        <v>0.8719499111175537</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1269147098064423</v>
+        <v>0.0684238076210022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8730853199958801</v>
+        <v>0.9315761923789978</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1304028779268265</v>
+        <v>0.14699587225914</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8695971369743347</v>
+        <v>0.8530040979385376</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3528296649456024</v>
+        <v>0.2149574905633926</v>
       </c>
       <c r="C23" t="n">
-        <v>0.64717036485672</v>
+        <v>0.7850425243377686</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
